--- a/Managing Risk/Risk Map.xlsx
+++ b/Managing Risk/Risk Map.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/c3009616_hallam_shu_ac_uk/Documents/Year3/Semester 1/Management of IT/Assessment/Risk Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheffieldhallam-my.sharepoint.com/personal/c3026923_hallam_shu_ac_uk/Documents/year3/management-of-it-projects/assessment/Week 4 Estimation and Managing Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{9480781D-1E89-40B9-ACA4-40F921F19DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A813B024-BB6F-47C7-BF80-DFB42504927B}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="8_{9480781D-1E89-40B9-ACA4-40F921F19DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3DE80C-321A-4182-A16C-719C7F461A6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2398F75A-D203-4BB8-945C-05BAC243FA82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2398F75A-D203-4BB8-945C-05BAC243FA82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Risk Map</t>
   </si>
@@ -67,12 +67,36 @@
   <si>
     <t>3 - Medium</t>
   </si>
+  <si>
+    <t>Risks: 
+1, 11</t>
+  </si>
+  <si>
+    <t>Risks: 
+3, 5, 9</t>
+  </si>
+  <si>
+    <t>Risks: 
+6</t>
+  </si>
+  <si>
+    <t>Risks:
+4, 10</t>
+  </si>
+  <si>
+    <t>Risks:
+7</t>
+  </si>
+  <si>
+    <t>Risks:
+2, 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +131,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +172,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -247,11 +322,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -271,11 +435,702 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -323,23 +1178,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -410,23 +1265,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -522,23 +1377,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -574,64 +1429,14 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FFC00000"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF00B050"/>
-      <color rgb="FFFFC000"/>
       <color rgb="FF92D050"/>
     </mruColors>
   </colors>
@@ -647,8 +1452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{805062B2-9A29-4854-B42E-0CE759A90264}" name="RiskMap" displayName="RiskMap" ref="D11:H22" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="D11:H22" xr:uid="{805062B2-9A29-4854-B42E-0CE759A90264}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{805062B2-9A29-4854-B42E-0CE759A90264}" name="RiskMap" displayName="RiskMap" ref="B10:F21" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="B10:F21" xr:uid="{805062B2-9A29-4854-B42E-0CE759A90264}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -656,14 +1461,14 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BCD0AD63-1EAE-4D08-96E3-C971C7A380FB}" name="ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{BCD0AD63-1EAE-4D08-96E3-C971C7A380FB}" name="ID" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{096D4E26-518C-458E-A5ED-ECBA7FBDAA91}" name="Probability"/>
     <tableColumn id="3" xr3:uid="{CF36B0B9-9433-4298-B47C-F7D3B52AEBEB}" name="Impact"/>
-    <tableColumn id="4" xr3:uid="{AA2D4642-9167-4F0F-B0BD-FA2E7AFD33D5}" name="Category" dataDxfId="13">
-      <calculatedColumnFormula>IF(AND(E12="1 - Low",F12="1 - Low"),"Very Low",IF(AND(E12="1 - Low",F12="3 - Medium"),"Quite Low",IF(AND(E12="1 - Low",F12="5 - High"),"Medium",IF(AND(E12="3 - Medium",F12="1 - Low"),"Quite Low",IF(AND(E12="3 - Medium",F12="3 - Medium"),"Medium",IF(AND(E12="3 - Medium",F12="5 - High"),"Quite High",IF(AND(E12="5 - High",F12="1 - Low"),"Medium",IF(AND(E12="5 - High",F12="3 - Medium"),"Quite High",IF(AND(E12="5 - High",E12="5 - High"),"Very High",)))))))))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{AA2D4642-9167-4F0F-B0BD-FA2E7AFD33D5}" name="Category" dataDxfId="81">
+      <calculatedColumnFormula>IF(AND(C11="1 - Low",D11="1 - Low"),"Very Low",IF(AND(C11="1 - Low",D11="3 - Medium"),"Quite Low",IF(AND(C11="1 - Low",D11="5 - High"),"Medium",IF(AND(C11="3 - Medium",D11="1 - Low"),"Quite Low",IF(AND(C11="3 - Medium",D11="3 - Medium"),"Medium",IF(AND(C11="3 - Medium",D11="5 - High"),"Quite High",IF(AND(C11="5 - High",D11="1 - Low"),"Medium",IF(AND(C11="5 - High",D11="3 - Medium"),"Quite High",IF(AND(C11="5 - High",C11="5 - High"),"Very High",)))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F6E2AC4A-D4CC-44D9-AC5E-953312076151}" name="Rating" dataDxfId="12">
-      <calculatedColumnFormula>VLOOKUP(E12, ProbTable[], 2,FALSE) * VLOOKUP(F12, ImpactTable[], 2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F6E2AC4A-D4CC-44D9-AC5E-953312076151}" name="Rating" dataDxfId="80">
+      <calculatedColumnFormula>VLOOKUP(C11, ProbTable[], 2,FALSE) * VLOOKUP(D11, ImpactTable[], 2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -671,32 +1476,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E391C3F-13CD-40BC-8A7C-8437DAC08FAC}" name="ProbTable" displayName="ProbTable" ref="J12:K15" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="J12:K15" xr:uid="{5E391C3F-13CD-40BC-8A7C-8437DAC08FAC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E391C3F-13CD-40BC-8A7C-8437DAC08FAC}" name="ProbTable" displayName="ProbTable" ref="H11:I14" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+  <autoFilter ref="H11:I14" xr:uid="{5E391C3F-13CD-40BC-8A7C-8437DAC08FAC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{D2BE9727-A00F-49D2-942E-1042A5DE58D9}" name="Probability" dataDxfId="7">
-      <calculatedColumnFormula>M20</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{D2BE9727-A00F-49D2-942E-1042A5DE58D9}" name="Probability" dataDxfId="75">
+      <calculatedColumnFormula>N19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{130ABC33-D131-4098-A6F9-125F8A705042}" name="Value" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{130ABC33-D131-4098-A6F9-125F8A705042}" name="Value" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{63D19051-87C1-43FB-947A-17FD49DF48C5}" name="ImpactTable" displayName="ImpactTable" ref="J18:K21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="J18:K21" xr:uid="{63D19051-87C1-43FB-947A-17FD49DF48C5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{63D19051-87C1-43FB-947A-17FD49DF48C5}" name="ImpactTable" displayName="ImpactTable" ref="H17:I20" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+  <autoFilter ref="H17:I20" xr:uid="{63D19051-87C1-43FB-947A-17FD49DF48C5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{6033D40A-3661-4E49-BA7D-A53CFF1C74A3}" name="Impact" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{6033D40A-3661-4E49-BA7D-A53CFF1C74A3}" name="Impact" dataDxfId="69">
       <calculatedColumnFormula>M33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A91ECA2C-A340-4ADC-81C3-5A028422F243}" name="Value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A91ECA2C-A340-4ADC-81C3-5A028422F243}" name="Value" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1019,306 +1824,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DC3C32-47FE-4BD6-BF89-481340983BE5}">
-  <dimension ref="D9:K22"/>
+  <dimension ref="B8:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11">
-      <c r="D9" s="13" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
-    <row r="11" spans="4:11">
-      <c r="D11" s="10" t="s">
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
-    <row r="12" spans="4:11">
-      <c r="D12" s="1">
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" ref="G12:G22" si="0">IF(AND(E12="1 - Low",F12="1 - Low"),"Very Low",IF(AND(E12="1 - Low",F12="3 - Medium"),"Quite Low",IF(AND(E12="1 - Low",F12="5 - High"),"Medium",IF(AND(E12="3 - Medium",F12="1 - Low"),"Quite Low",IF(AND(E12="3 - Medium",F12="3 - Medium"),"Medium",IF(AND(E12="3 - Medium",F12="5 - High"),"Quite High",IF(AND(E12="5 - High",F12="1 - Low"),"Medium",IF(AND(E12="5 - High",F12="3 - Medium"),"Quite High",IF(AND(E12="5 - High",E12="5 - High"),"Very High",)))))))))</f>
+      <c r="E11" s="2" t="str">
+        <f t="shared" ref="E11:E21" si="0">IF(AND(C11="1 - Low",D11="1 - Low"),"Very Low",IF(AND(C11="1 - Low",D11="3 - Medium"),"Quite Low",IF(AND(C11="1 - Low",D11="5 - High"),"Medium",IF(AND(C11="3 - Medium",D11="1 - Low"),"Quite Low",IF(AND(C11="3 - Medium",D11="3 - Medium"),"Medium",IF(AND(C11="3 - Medium",D11="5 - High"),"Quite High",IF(AND(C11="5 - High",D11="1 - Low"),"Medium",IF(AND(C11="5 - High",D11="3 - Medium"),"Quite High",IF(AND(C11="5 - High",C11="5 - High"),"Very High",)))))))))</f>
         <v>Very Low</v>
       </c>
-      <c r="H12" s="3">
-        <f>VLOOKUP(E12, ProbTable[], 2,FALSE) * VLOOKUP(F12, ImpactTable[], 2,FALSE)</f>
+      <c r="F11" s="3">
+        <f>VLOOKUP(C11, ProbTable[], 2,FALSE) * VLOOKUP(D11, ImpactTable[], 2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="I11" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
-    <row r="13" spans="4:11">
-      <c r="D13" s="8">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Very High</v>
       </c>
-      <c r="H13" s="9">
-        <f>VLOOKUP(E13, ProbTable[], 2,FALSE) * VLOOKUP(F13, ImpactTable[], 2,FALSE)</f>
+      <c r="F12" s="9">
+        <f>VLOOKUP(C12, ProbTable[], 2,FALSE) * VLOOKUP(D12, ImpactTable[], 2,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
-    <row r="14" spans="4:11">
-      <c r="D14" s="8">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="7" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Quite Low</v>
       </c>
-      <c r="H14" s="9">
-        <f>VLOOKUP(E14, ProbTable[], 2,FALSE) * VLOOKUP(F14, ImpactTable[], 2,FALSE)</f>
+      <c r="F13" s="9">
+        <f>VLOOKUP(C13, ProbTable[], 2,FALSE) * VLOOKUP(D13, ImpactTable[], 2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="7">
+      <c r="I13" s="7">
         <v>3</v>
       </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
-    <row r="15" spans="4:11">
-      <c r="D15" s="8">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="7" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Quite High</v>
       </c>
-      <c r="H15" s="9">
-        <f>VLOOKUP(E15, ProbTable[], 2,FALSE) * VLOOKUP(F15, ImpactTable[], 2,FALSE)</f>
+      <c r="F14" s="9">
+        <f>VLOOKUP(C14, ProbTable[], 2,FALSE) * VLOOKUP(D14, ImpactTable[], 2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="16">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
-    <row r="16" spans="4:11">
-      <c r="D16" s="8">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Quite Low</v>
       </c>
-      <c r="H16" s="9">
-        <f>VLOOKUP(E16, ProbTable[], 2,FALSE) * VLOOKUP(F16, ImpactTable[], 2,FALSE)</f>
+      <c r="F15" s="9">
+        <f>VLOOKUP(C15, ProbTable[], 2,FALSE) * VLOOKUP(D15, ImpactTable[], 2,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
-    <row r="17" spans="4:11">
-      <c r="D17" s="8">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
         <v>6</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="str">
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
-      <c r="H17" s="9">
-        <f>VLOOKUP(E17, ProbTable[], 2,FALSE) * VLOOKUP(F17, ImpactTable[], 2,FALSE)</f>
+      <c r="F16" s="9">
+        <f>VLOOKUP(C16, ProbTable[], 2,FALSE) * VLOOKUP(D16, ImpactTable[], 2,FALSE)</f>
         <v>5</v>
       </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
-    <row r="18" spans="4:11">
-      <c r="D18" s="4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Quite High</v>
       </c>
-      <c r="H18" s="6">
-        <f>VLOOKUP(E18, ProbTable[], 2,FALSE) * VLOOKUP(F18, ImpactTable[], 2,FALSE)</f>
+      <c r="F17" s="6">
+        <f>VLOOKUP(C17, ProbTable[], 2,FALSE) * VLOOKUP(D17, ImpactTable[], 2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>7</v>
       </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
-    <row r="19" spans="4:11">
-      <c r="D19" s="8">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
         <v>8</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Very High</v>
       </c>
-      <c r="H19" s="9">
-        <f>VLOOKUP(E19, ProbTable[], 2,FALSE) * VLOOKUP(F19, ImpactTable[], 2,FALSE)</f>
+      <c r="F18" s="9">
+        <f>VLOOKUP(C18, ProbTable[], 2,FALSE) * VLOOKUP(D18, ImpactTable[], 2,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="7">
+      <c r="I18" s="7">
         <v>1</v>
       </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
-    <row r="20" spans="4:11">
-      <c r="D20" s="8">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
         <v>9</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="7" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Quite Low</v>
       </c>
-      <c r="H20" s="9">
-        <f>VLOOKUP(E20, ProbTable[], 2,FALSE) * VLOOKUP(F20, ImpactTable[], 2,FALSE)</f>
+      <c r="F19" s="9">
+        <f>VLOOKUP(C19, ProbTable[], 2,FALSE) * VLOOKUP(D19, ImpactTable[], 2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="7">
+      <c r="I19" s="7">
         <v>3</v>
       </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="17"/>
     </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Quite High</v>
       </c>
-      <c r="H21" s="6">
-        <f>VLOOKUP(E21, ProbTable[], 2,FALSE) * VLOOKUP(F21, ImpactTable[], 2,FALSE)</f>
+      <c r="F20" s="6">
+        <f>VLOOKUP(C20, ProbTable[], 2,FALSE) * VLOOKUP(D20, ImpactTable[], 2,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="7">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17"/>
     </row>
-    <row r="22" spans="4:11">
-      <c r="D22" s="4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>11</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Very Low</v>
       </c>
-      <c r="H22" s="6">
-        <f>VLOOKUP(E22, ProbTable[], 2,FALSE) * VLOOKUP(F22, ImpactTable[], 2,FALSE)</f>
+      <c r="F21" s="6">
+        <f>VLOOKUP(C21, ProbTable[], 2,FALSE) * VLOOKUP(D21, ImpactTable[], 2,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="M21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="M21:O22"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E11:E21">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Very High">
+      <formula>NOT(ISERROR(SEARCH("Very High",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Very High">
+      <formula>NOT(ISERROR(SEARCH("Very High",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Very Low">
+      <formula>NOT(ISERROR(SEARCH("Very Low",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Quite High">
+      <formula>NOT(ISERROR(SEARCH("Quite High",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Quite Low">
+      <formula>NOT(ISERROR(SEARCH("Quite Low",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1329,29 +2301,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Quite Low">
-      <formula>NOT(ISERROR(SEARCH("Quite Low",G12)))</formula>
+  <conditionalFormatting sqref="C11:C21">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="1 - Low">
+      <formula>NOT(ISERROR(SEARCH("1 - Low",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Quite High">
-      <formula>NOT(ISERROR(SEARCH("Quite High",G12)))</formula>
+  <conditionalFormatting sqref="D11:D21">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D11)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Very Low">
-      <formula>NOT(ISERROR(SEARCH("Very Low",G12)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D11)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G22">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Very High">
-      <formula>NOT(ISERROR(SEARCH("Very High",G12)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
